--- a/Beagle_en_pages_report.xlsx
+++ b/Beagle_en_pages_report.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3332" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3386" uniqueCount="528">
   <si>
     <t>asset</t>
   </si>
@@ -1607,13 +1607,18 @@
     <numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
     <numFmt numFmtId="165" formatCode="###0.0"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1716,7 +1721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -1760,6 +1765,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -1775,8 +1783,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="138.734375" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="143.79296875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="138.734375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="143.79296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3488,10 +3496,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="42">
+      <c r="A1" t="s" s="45">
         <v>422</v>
       </c>
-      <c r="B1" t="s" s="42">
+      <c r="B1" t="s" s="45">
         <v>423</v>
       </c>
     </row>

--- a/Beagle_en_pages_report.xlsx
+++ b/Beagle_en_pages_report.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="local assets" r:id="rId5" sheetId="13"/>
-    <sheet name="page map" r:id="rId4" sheetId="14"/>
+    <sheet name="todos" r:id="rId6" sheetId="15"/>
+    <sheet name="page map" r:id="rId7" sheetId="16"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3386" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4126" uniqueCount="1190">
   <si>
     <t>asset</t>
   </si>
@@ -1597,6 +1598,1992 @@
   </si>
   <si>
     <t>/content/cc1/us/en/products/type/font-designers/michael-harvey.html</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>beagle/components/blogfeed</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/project-felix</t>
+  </si>
+  <si>
+    <t>beagle/components/hovercontainer/hoveritem</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/marketing-cloud/experience-manager/social-media-content-management</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/data-analytics-cloud/audience-manager/general-data-protection-regulation</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/experience-cloud/events</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/solutions/request-consultation/tech-comm-thank-you</t>
+  </si>
+  <si>
+    <t>beagle/components/hovercontainer</t>
+  </si>
+  <si>
+    <t>beagle/components/specialoffers</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/special-offers/affinity-pop</t>
+  </si>
+  <si>
+    <t>beagle/components/hovercontainer/rowend</t>
+  </si>
+  <si>
+    <t>beagle/components/merchandising</t>
+  </si>
+  <si>
+    <t>beagle/components/anchor</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/indesignserver/buying-guide-displayTab2</t>
+  </si>
+  <si>
+    <t>beagle/components/clouddisplay</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/offers/PhotoSerge</t>
+  </si>
+  <si>
+    <t>beagle/components/showmore</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/downloads/updates</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/downloads/other-downloads</t>
+  </si>
+  <si>
+    <t>beagle/components/promo</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/data-analytics-cloud/audience-manager</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/technicalcommunicationsuite</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/technicalcommunicationsuite/learn-more</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/xml-documentation-for-experience-manager/learn-more</t>
+  </si>
+  <si>
+    <t>beagle/components/promo/state</t>
+  </si>
+  <si>
+    <t>beagle/components/satisfactionsurvey</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/premiere-clip/faq-support</t>
+  </si>
+  <si>
+    <t>beagle/components/htmlimporter</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/howtobuy/buying-programs/clp-form</t>
+  </si>
+  <si>
+    <t>beagle/components/fontlicensing</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-licensing/font-licensing-info</t>
+  </si>
+  <si>
+    <t>beagle/components/promopod</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/lance-hidy.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/lance-hidy.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/data-analytics-cloud/audience-manager.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/data-analytics-cloud/audience-manager.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/richard-lipton.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/richard-lipton.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/premiere-clip.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/premiere-clip.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/solutions/request-consultation/financial-services.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/solutions/request-consultation/financial-services.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/project-felix.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/project-felix.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/subscription/adobe_digital_edge_award_signup/404_Error.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/subscription/adobe_digital_edge_award_signup/404_Error.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/limited/apip.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/limited/apip.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/pricing-info/cc-pricing-info.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/pricing-info/cc-pricing-info.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/technicalcommunicationsuite/download-trial/keep-learning.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/technicalcommunicationsuite/download-trial/keep-learning.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/solutions/request-consultation/manufacturing.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/solutions/request-consultation/manufacturing.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/john-benson.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/john-benson.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/data-analytics-cloud/audience-manager/resources.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/data-analytics-cloud/audience-manager/resources.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/livecycle/rightsmanagement.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/livecycle/rightsmanagement.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/director/download-trial/get-started.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/director/download-trial/get-started.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/technicalcommunicationsuite.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/technicalcommunicationsuite.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/michael-want.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/michael-want.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/adobeconnect/enterprise/trial-error.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/adobeconnect/enterprise/trial-error.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flash-builder-php-standard/buying-guide-displayTab2.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flash-builder-php-standard/buying-guide-displayTab2.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/livecycle/rightsmanagement/extension.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/livecycle/rightsmanagement/extension.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/neelakash-kshetrimayum.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/neelakash-kshetrimayum.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/sas.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/sas.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/alan-blackman.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/alan-blackman.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/project-felix/features.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/project-felix/features.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/live-virtual-learning-josh-bersin/thankyou.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/live-virtual-learning-josh-bersin/thankyou.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/tim-donaldson.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/tim-donaldson.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/customer-detail-template-alt.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/customer-detail-template-alt.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/connect-webinars.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/connect-webinars.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-information.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-information.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/hue.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/hue.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flash-builder-php-standard/buying-guide.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flash-builder-php-standard/buying-guide.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flashplayer/about_test.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flashplayer/about_test.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/livecycle.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/livecycle.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/communities/user-groups.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/communities/user-groups.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/adobe-access-trial-thankyou.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/adobe-access-trial-thankyou.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/lightroom-mobile.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/lightroom-mobile.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/data-analytics-cloud/audience-manager/audience-activation.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/data-analytics-cloud/audience-manager/audience-activation.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/about-adobe/inactive.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/about-adobe/inactive.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/captivate/direct-download.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/captivate/direct-download.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/backup_community-translation.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/backup_community-translation.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/masahiko-kozuka.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/masahiko-kozuka.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/xmp/white-papers.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/xmp/white-papers.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/joachim-muller-lance.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/joachim-muller-lance.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/solutions/request-consultation/industry-vertical.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/solutions/request-consultation/industry-vertical.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/spar-ics.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/spar-ics.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/solutions/ebook/content-server/faq.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/solutions/ebook/content-server/faq.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/zebra.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/zebra.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-licensing/font-licensing-info.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-licensing/font-licensing-info.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/fontfolio/faq.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/fontfolio/faq.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/dell.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/dell.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flashplayer/about_test/aboutv5.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flashplayer/about_test/aboutv5.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flashplayer/about_test/aboutv4.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flashplayer/about_test/aboutv4.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flashplayer/about_test/aboutv3.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flashplayer/about_test/aboutv3.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flashplayer/about_test/aboutv2.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flashplayer/about_test/aboutv2.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flash/features.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flash/features.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/progrexion.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/progrexion.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/vaibhav-singh.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/vaibhav-singh.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/adobeconnect/enterprise/trial-thankyou.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/adobeconnect/enterprise/trial-thankyou.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/adobeanywhere.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/adobeanywhere.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/viktor-solt-bittner.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/viktor-solt-bittner.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flashplayer/about_test/aboutv7.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flashplayer/about_test/aboutv7.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flashplayer/about_test/aboutv6.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flashplayer/about_test/aboutv6.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/technicalcommunicationsuite/buying-guide.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/technicalcommunicationsuite/buying-guide.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/xml-documentation-for-experience-manager/request-demo-dmb.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/xml-documentation-for-experience-manager/request-demo-dmb.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/presenter/download-trial/get-started.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/presenter/download-trial/get-started.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/creative-cloud.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/creative-cloud.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/technicalcommunicationsuite/vipdownload.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/technicalcommunicationsuite/vipdownload.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/technicalcommunicationsuite/university-outreach.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/technicalcommunicationsuite/university-outreach.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flash-builder-standard/tech-specs.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flash-builder-standard/tech-specs.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flashplayer/distribution3.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flashplayer/distribution3.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/communities/index.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/communities/index.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/livecycle/modules.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/livecycle/modules.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/education/institutions.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/education/institutions.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/jeremy-tankard.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/jeremy-tankard.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-licensing/restricted-fonts.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-licensing/restricted-fonts.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/academy-art.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/academy-art.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/test/government.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/test/government.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/morningstar.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/morningstar.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/amway.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/amway.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/edge-code.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/edge-code.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/connect-meetings.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/connect-meetings.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flash-builder-php-standard.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flash-builder-php-standard.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/digital-publishing-solution/features.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/digital-publishing-solution/features.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/solutions/ebook/digital-editions/faq.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/solutions/ebook/digital-editions/faq.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/microsoft.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/microsoft.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/solutions/request-consultation/open-options.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/solutions/request-consultation/open-options.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/opentype/opentype-mm.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/opentype/opentype-mm.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/creative-cloud-video-pro.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/creative-cloud-video-pro.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/david-brezina.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/david-brezina.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/premiere-clip/faq-support.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/premiere-clip/faq-support.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/confirmation.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/confirmation.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/coldfusion-builder/download-trial/get-started.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/coldfusion-builder/download-trial/get-started.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/cleo-huggins.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/cleo-huggins.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/der-touristik.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/der-touristik.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/adobe-media-server.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/adobe-media-server.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/investor-relations/invalerts.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/investor-relations/invalerts.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/solutions/request-consultation/tech-comm-thank-you.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/solutions/request-consultation/tech-comm-thank-you.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/technicalcommunicationsuite/whitepaper-test/thank-you.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/technicalcommunicationsuite/whitepaper-test/thank-you.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/fontfolio.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/fontfolio.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/livecycle/rightsmanagement/extension/downloads.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/livecycle/rightsmanagement/extension/downloads.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/data-analytics-cloud/audience-manager/identity-management.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/data-analytics-cloud/audience-manager/identity-management.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/solutions/ebook/digital-editions.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/solutions/ebook/digital-editions.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/tim-holloway.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/tim-holloway.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/rs-components.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/rs-components.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/livecycle/showcase.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/livecycle/showcase.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/london-heathrow.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/london-heathrow.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/test-multi-id.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/test-multi-id.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/akira-kobayashi.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/akira-kobayashi.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/adobeconnect/trial-unavailable.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/adobeconnect/trial-unavailable.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/fireworks.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/fireworks.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/opentype/opentype-faq.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/opentype/opentype-faq.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/adobe-type-originals.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/adobe-type-originals.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/david-siegel.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/david-siegel.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/designtoprint/signup.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/designtoprint/signup.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/connect-oem.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/connect-oem.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/marketo-bdr.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/marketo-bdr.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/fernando-mello.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/fernando-mello.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/fontfoliofamily.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/fontfoliofamily.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/connect-learning.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/connect-learning.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flash-builder-family/buying-guide-displayTab2.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flash-builder-family/buying-guide-displayTab2.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/captivate-prime.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/captivate-prime.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/paul-hunt.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/paul-hunt.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/miguel-sousa.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/miguel-sousa.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/story-detail-template-video-12062017.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/story-detail-template-video-12062017.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/test-delete.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/test-delete.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/livecycle/mobile.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/livecycle/mobile.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/solutions/request-consultation/life-sciences.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/solutions/request-consultation/life-sciences.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/adobe-type-references-tips/bibliography.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/adobe-type-references-tips/bibliography.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/lynne-garell.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/lynne-garell.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/livecycle-oem.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/livecycle-oem.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/solutions/ebook/rmsdk.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/solutions/ebook/rmsdk.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/joy-redick.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/joy-redick.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/robohelp/download-trial/get-started.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/robohelp/download-trial/get-started.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/technicalcommunicationsuite/download-trial/try.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/technicalcommunicationsuite/download-trial/try.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/fiona-ross.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/fiona-ross.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/julian-waters.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/julian-waters.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flash-builder-standard/showcase.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flash-builder-standard/showcase.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/marketo-thank-you.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/marketo-thank-you.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/edge-inspect.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/edge-inspect.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/hotelscom.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/hotelscom.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/digital-publishing-solution/customer-success.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/digital-publishing-solution/customer-success.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flash/versions.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flash/versions.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/captivate/direct-download/thank-you.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/captivate/direct-download/thank-you.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flashplayer/about_test/about.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flashplayer/about_test/about.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flash-builder-php.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flash-builder-php.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/offers/cct-offer-landing.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/offers/cct-offer-landing.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/hostelworld.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/hostelworld.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/technicalcommunicationsuite/tech-comm-dmb.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/technicalcommunicationsuite/tech-comm-dmb.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/indesignserver/buying-guide-displayTab2.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/indesignserver/buying-guide-displayTab2.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/captivateprime/content-rfi.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/captivateprime/content-rfi.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/offers/PhotoSerge.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/offers/PhotoSerge.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/conde-nast.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/conde-nast.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/offers/hp-offers.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/offers/hp-offers.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/life-sciences.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/life-sciences.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/solutions/ebook/content-server.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/solutions/ebook/content-server.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flash-builder-php/features_backup.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flash-builder-php/features_backup.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/marketing-cloud-modal.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/marketing-cloud-modal.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/test/marketing-cloud.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/test/marketing-cloud.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/solutions/request-consultation/elearning.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/solutions/request-consultation/elearning.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/xmp.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/xmp.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/creativecloud/students.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/creativecloud/students.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/subscription/Der_Adobe_Education_Newsletter/404_error.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/subscription/Der_Adobe_Education_Newsletter/404_error.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/john-hudson.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/john-hudson.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/amazon-web-services/tech-specs.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/amazon-web-services/tech-specs.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/customer-detail-template.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/customer-detail-template.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/downloads/updates.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/downloads/updates.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/technicalcommunicationsuite/features-all.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/technicalcommunicationsuite/features-all.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/erin-mclaughlin.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/erin-mclaughlin.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/technicalcommunicationsuite/resources.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/technicalcommunicationsuite/resources.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/data-analytics-cloud/audience-manager/general-data-protection-regulation.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/data-analytics-cloud/audience-manager/general-data-protection-regulation.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flash-builder-standard/faq.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flash-builder-standard/faq.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/jim-wasco.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/jim-wasco.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/solutions/request-consultation/tech-comm.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/solutions/request-consultation/tech-comm.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flash-builder-php/buying-guide.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flash-builder-php/buying-guide.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/livecycle/tools/designer.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/livecycle/tools/designer.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/carol-twombly.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/carol-twombly.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-licensing/font-embedding-permissions.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-licensing/font-embedding-permissions.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/shockwaveplayer/reviews.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/shockwaveplayer/reviews.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-team.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-team.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/connect.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/connect.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/solutions/ebook/content-server/tech-specs.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/solutions/ebook/content-server/tech-specs.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/lcsolutions.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/lcsolutions.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/story-detail-template-11272017.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/story-detail-template-11272017.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/data-analytics-cloud/audience-manager/capabilities.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/data-analytics-cloud/audience-manager/capabilities.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/director/download-trial.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/director/download-trial.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/telegraph-media.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/telegraph-media.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/westjet.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/westjet.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/mario-feliciano.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/mario-feliciano.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/solutions/ebook/digital-editions/tech-specs.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/solutions/ebook/digital-editions/tech-specs.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/data-analytics-cloud/audience-manager/optimization.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/data-analytics-cloud/audience-manager/optimization.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/special-offers/affinity-pop.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/special-offers/affinity-pop.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/photoshop-lightroom-classic/lightroom-cc-vs-lightroom-classic.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/photoshop-lightroom-classic/lightroom-cc-vs-lightroom-classic.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/director/download-trial/keep-learning.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/director/download-trial/keep-learning.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flash-media-playback/hosting-partners.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flash-media-playback/hosting-partners.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flex/extend-displayTab2.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flex/extend-displayTab2.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/marketing-cloud/experience-manager/development-deployment.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/marketing-cloud/experience-manager/development-deployment.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/data-analytics-cloud/audience-manager/audience-segmentation.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/data-analytics-cloud/audience-manager/audience-segmentation.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/elements-family/photoshop-elements/download-trial/get-started.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/elements-family/photoshop-elements/download-trial/get-started.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/thankyou.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/thankyou.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/experience-cloud/events.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/experience-cloud/events.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/adobeconnect/trial-error.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/adobeconnect/trial-error.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/microsoft-test2.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/microsoft-test2.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/solutions/ebook/rmsdk/faq.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/solutions/ebook/rmsdk/faq.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/technicalcommunicationsuite/download-trial.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/technicalcommunicationsuite/download-trial.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/adobeconnect/contact.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/adobeconnect/contact.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/sky.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/sky.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/technicalcommunicationsuite/features.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/technicalcommunicationsuite/features.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/adobedrive.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/adobedrive.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/downloads/other-downloads.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/downloads/other-downloads.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/live-virtual-learning-josh-bersin.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/live-virtual-learning-josh-bersin.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/mark-jamra.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/mark-jamra.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/director/download-trial/try.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/director/download-trial/try.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/phonegap.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/phonegap.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/indesignserver/features.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/indesignserver/features.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-licensing/licensing-faq.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-licensing/licensing-faq.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/philips.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/philips.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-information/Adobe-Kannada-Readme.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-information/Adobe-Kannada-Readme.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/captivate/vipdownload.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/captivate/vipdownload.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flash-builder-php/tech-specs.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flash-builder-php/tech-specs.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/livecycle/modules-displayTab3.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/livecycle/modules-displayTab3.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/livecycle/modules-displayTab2.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/livecycle/modules-displayTab2.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flash-builder-php/faq.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flash-builder-php/faq.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/technicalcommunicationsuite/tech-comm-dmb/tech-comm-dmb-thank-you.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/technicalcommunicationsuite/tech-comm-dmb/tech-comm-dmb-thank-you.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/howtobuy/buying-programs/clp-form.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/howtobuy/buying-programs/clp-form.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/opentype/opentype-fonts-information.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/opentype/opentype-fonts-information.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/adobe-access.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/adobe-access.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/nedbank.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/nedbank.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/synopsys.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/synopsys.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/tourism-australia.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/tourism-australia.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/typekit-tiers.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/typekit-tiers.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/solutions/request-consultation/captivate.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/solutions/request-consultation/captivate.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/xml-documentation-for-experience-manager/request-demo-dmb/thank-you.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/xml-documentation-for-experience-manager/request-demo-dmb/thank-you.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/fontfolio/features.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/fontfolio/features.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flash-builder-php-standard/faq.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flash-builder-php-standard/faq.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-licensing/additional-license-rights.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-licensing/additional-license-rights.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/amazon-web-services/pricing.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/amazon-web-services/pricing.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/robert-slimbach.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/robert-slimbach.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/livecycle/upgrade.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/livecycle/upgrade.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/story-detail-template-conde-nast.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/story-detail-template-conde-nast.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/captivateprime/content-rfi/thank-you.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/captivateprime/content-rfi/thank-you.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/media-server/download-trial/get-started.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/media-server/download-trial/get-started.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/state-of-hawaii.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/state-of-hawaii.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/xml-documentation-for-experience-manager/request-demo/thank-you.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/xml-documentation-for-experience-manager/request-demo/thank-you.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/marketing-cloud.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/marketing-cloud.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/creativecloud/web-app-design.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/creativecloud/web-app-design.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/xmp/standards.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/xmp/standards.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-information/source-code-pro-readme-file.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-information/source-code-pro-readme-file.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/nissan.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/nissan.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/livecycle/tools.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/livecycle/tools.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/creative-cloud1.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/creative-cloud1.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/fontfolio/tech-specs.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/fontfolio/tech-specs.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/creativecloud/business/enterprise-plan.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/creativecloud/business/enterprise-plan.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/adobeconnect/trial-thankyou.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/adobeconnect/trial-thankyou.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/test/connect.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/test/connect.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/edge-reflow.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/edge-reflow.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/framemaker/download-trial/get-started.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/framemaker/download-trial/get-started.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/min-wang.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/min-wang.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/technicalcommunicationsuite/education.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/technicalcommunicationsuite/education.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flash-builder-php-standard/tech-specs.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flash-builder-php-standard/tech-specs.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flash-builder-php-standard/showcase.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flash-builder-php-standard/showcase.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/craig-frazier.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/craig-frazier.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/xml-documentation-for-experience-manager/learn-more.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/xml-documentation-for-experience-manager/learn-more.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/jim-parkinson.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/jim-parkinson.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/data-analytics-cloud/audience-manager/learn-support.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/data-analytics-cloud/audience-manager/learn-support.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/virgin-holidays.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/virgin-holidays.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/connect-pro.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/connect-pro.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/unsubscribe-unavailable.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/unsubscribe-unavailable.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flashplayer/about_test/about_proto.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flashplayer/about_test/about_proto.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-information/Adobe-Bengali-Readme.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-information/Adobe-Bengali-Readme.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/solutions/request-consultation/education.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/solutions/request-consultation/education.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/t-mobile.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/t-mobile.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/test.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/test.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/technicalcommunicationsuite/reviews.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/technicalcommunicationsuite/reviews.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/christopher-slye.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/christopher-slye.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flash-builder-family/buying-guide.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flash-builder-family/buying-guide.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/solutions/ebook/digital-editions/release-notes.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/solutions/ebook/digital-editions/release-notes.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/thomas-phinney.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/thomas-phinney.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/netapp.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/netapp.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/players/shockwave-player-licensing-distribution.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/players/shockwave-player-licensing-distribution.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/marketing-cloud/experience-manager/experience-manager-and-microsoft-dynamics.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/marketing-cloud/experience-manager/experience-manager-and-microsoft-dynamics.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/technicalcommunicationsuite/learn-more.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/technicalcommunicationsuite/learn-more.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-information/Source-Sans-Pro-Readme-file.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-information/Source-Sans-Pro-Readme-file.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flash-builder-php/buying-guide-displayTab2.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flash-builder-php/buying-guide-displayTab2.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/connect-gov.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/connect-gov.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/xml-documentation-for-experience-manager/request-demo.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/xml-documentation-for-experience-manager/request-demo.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/rick-cusick.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/rick-cusick.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/informatica.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/informatica.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-licensing.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-licensing.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/jovica-veljovic.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/jovica-veljovic.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/frank-griesshammer.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/frank-griesshammer.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/edge-animate.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/edge-animate.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/data-analytics-cloud/audience-manager/customer-data-management.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/data-analytics-cloud/audience-manager/customer-data-management.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/adobe-extension-builder/tech-specs.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/adobe-extension-builder/tech-specs.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/fontfolio/buying-guide.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/fontfolio/buying-guide.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/marketing-cloud/experience-manager/social-media-content-management.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/marketing-cloud/experience-manager/social-media-content-management.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/adobe-access-trial.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/adobe-access-trial.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/technicalcommunicationsuite/whitepaper-test.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/technicalcommunicationsuite/whitepaper-test.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/creativecloud/students/make-it-with-creative-cloud.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/creativecloud/students/make-it-with-creative-cloud.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/customershowcase/story/customer-detail-page.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/customershowcase/story/customer-detail-page.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/flash-builder-standard/buying-guide-displayTab2.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/flash-builder-standard/buying-guide-displayTab2.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/ryoko-nishizuka.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/ryoko-nishizuka.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/opentype.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/opentype.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/creative-cloud-fonts.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/creative-cloud-fonts.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/laurie-szujewska.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/laurie-szujewska.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-designers/carl-crossgrove.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-designers/carl-crossgrove.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/designtoprint/signup/thank-you.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/designtoprint/signup/thank-you.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/request-consultation/coldfusion.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/request-consultation/coldfusion.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/shape.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/shape.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/font-licensing/end-user-licensing-agreements.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/font-licensing/end-user-licensing-agreements.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/shockwaveplayer/shockwaveplayerstatistics.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/shockwaveplayer/shockwaveplayerstatistics.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/products/type/opentype/opentype-T1-faq.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/products/type/opentype/opentype-T1-faq.html</t>
+  </si>
+  <si>
+    <t>/content/acom/us/en/investor-relations/invalerts/confirmation.html</t>
+  </si>
+  <si>
+    <t>/content/cc1/us/en/investor-relations/invalerts/confirmation.html</t>
   </si>
 </sst>
 </file>
@@ -1607,13 +3594,23 @@
     <numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
     <numFmt numFmtId="165" formatCode="###0.0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1721,7 +3718,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -1768,6 +3765,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -3480,9 +5483,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -3491,224 +5494,2988 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="91.609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="89.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="43.76953125" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="89.5703125" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="45">
-        <v>422</v>
-      </c>
-      <c r="B1" t="s" s="45">
-        <v>423</v>
+      <c r="A1" t="s" s="48">
+        <v>528</v>
+      </c>
+      <c r="B1" t="s" s="48">
+        <v>529</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>476</v>
+        <v>530</v>
       </c>
       <c r="B2" t="s">
-        <v>502</v>
+        <v>531</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="B3" t="s">
-        <v>503</v>
+        <v>533</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>478</v>
+        <v>532</v>
       </c>
       <c r="B4" t="s">
-        <v>504</v>
+        <v>534</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>479</v>
+        <v>532</v>
       </c>
       <c r="B5" t="s">
-        <v>505</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>481</v>
+        <v>537</v>
       </c>
       <c r="B7" t="s">
-        <v>507</v>
+        <v>536</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>482</v>
+        <v>538</v>
       </c>
       <c r="B8" t="s">
-        <v>508</v>
+        <v>539</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="B9" t="s">
-        <v>509</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="B10" t="s">
-        <v>510</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="B11" t="s">
-        <v>511</v>
+        <v>543</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>486</v>
+        <v>544</v>
       </c>
       <c r="B12" t="s">
-        <v>512</v>
+        <v>545</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
       <c r="B13" t="s">
-        <v>513</v>
+        <v>547</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>488</v>
+        <v>546</v>
       </c>
       <c r="B14" t="s">
-        <v>514</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="B15" t="s">
-        <v>515</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>490</v>
+        <v>549</v>
       </c>
       <c r="B16" t="s">
-        <v>516</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>491</v>
+        <v>549</v>
       </c>
       <c r="B17" t="s">
-        <v>517</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="B18" t="s">
-        <v>518</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>493</v>
+        <v>554</v>
       </c>
       <c r="B19" t="s">
-        <v>519</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
       <c r="B20" t="s">
-        <v>520</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>495</v>
+        <v>554</v>
       </c>
       <c r="B21" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>496</v>
+        <v>554</v>
       </c>
       <c r="B22" t="s">
-        <v>522</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>497</v>
+        <v>555</v>
       </c>
       <c r="B23" t="s">
-        <v>523</v>
+        <v>556</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="B24" t="s">
-        <v>524</v>
+        <v>558</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>499</v>
+        <v>559</v>
       </c>
       <c r="B25" t="s">
-        <v>525</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="B26" t="s">
-        <v>526</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
+        <v>561</v>
+      </c>
+      <c r="B27" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>561</v>
+      </c>
+      <c r="B28" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>561</v>
+      </c>
+      <c r="B29" t="s">
+        <v>553</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B341"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="103.0234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="101.16796875" customWidth="true" bestFit="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="51">
+        <v>422</v>
+      </c>
+      <c r="B1" t="s" s="51">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>564</v>
+      </c>
+      <c r="B3" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>566</v>
+      </c>
+      <c r="B4" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>568</v>
+      </c>
+      <c r="B5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>570</v>
+      </c>
+      <c r="B6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B7" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>574</v>
+      </c>
+      <c r="B8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>576</v>
+      </c>
+      <c r="B9" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>485</v>
+      </c>
+      <c r="B10" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>578</v>
+      </c>
+      <c r="B11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>580</v>
+      </c>
+      <c r="B12" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>582</v>
+      </c>
+      <c r="B13" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>586</v>
+      </c>
+      <c r="B15" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>588</v>
+      </c>
+      <c r="B16" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>590</v>
+      </c>
+      <c r="B17" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>592</v>
+      </c>
+      <c r="B18" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>594</v>
+      </c>
+      <c r="B19" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>596</v>
+      </c>
+      <c r="B20" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>598</v>
+      </c>
+      <c r="B21" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>600</v>
+      </c>
+      <c r="B22" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>602</v>
+      </c>
+      <c r="B23" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>604</v>
+      </c>
+      <c r="B24" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>606</v>
+      </c>
+      <c r="B25" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>497</v>
+      </c>
+      <c r="B26" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>608</v>
+      </c>
+      <c r="B27" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>610</v>
+      </c>
+      <c r="B28" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>612</v>
+      </c>
+      <c r="B29" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>614</v>
+      </c>
+      <c r="B30" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>616</v>
+      </c>
+      <c r="B31" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>618</v>
+      </c>
+      <c r="B32" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>620</v>
+      </c>
+      <c r="B33" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>622</v>
+      </c>
+      <c r="B34" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>624</v>
+      </c>
+      <c r="B35" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>626</v>
+      </c>
+      <c r="B36" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>628</v>
+      </c>
+      <c r="B37" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>630</v>
+      </c>
+      <c r="B38" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>632</v>
+      </c>
+      <c r="B39" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>477</v>
+      </c>
+      <c r="B40" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>634</v>
+      </c>
+      <c r="B41" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>636</v>
+      </c>
+      <c r="B42" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>481</v>
+      </c>
+      <c r="B43" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>638</v>
+      </c>
+      <c r="B44" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>482</v>
+      </c>
+      <c r="B45" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>640</v>
+      </c>
+      <c r="B46" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>642</v>
+      </c>
+      <c r="B47" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>644</v>
+      </c>
+      <c r="B48" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>646</v>
+      </c>
+      <c r="B49" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>648</v>
+      </c>
+      <c r="B50" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>650</v>
+      </c>
+      <c r="B51" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>652</v>
+      </c>
+      <c r="B52" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>654</v>
+      </c>
+      <c r="B53" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>656</v>
+      </c>
+      <c r="B54" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>658</v>
+      </c>
+      <c r="B55" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>660</v>
+      </c>
+      <c r="B56" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>662</v>
+      </c>
+      <c r="B57" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>664</v>
+      </c>
+      <c r="B58" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>666</v>
+      </c>
+      <c r="B59" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>668</v>
+      </c>
+      <c r="B60" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>670</v>
+      </c>
+      <c r="B61" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>672</v>
+      </c>
+      <c r="B62" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>492</v>
+      </c>
+      <c r="B63" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>674</v>
+      </c>
+      <c r="B64" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>676</v>
+      </c>
+      <c r="B65" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>678</v>
+      </c>
+      <c r="B66" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>680</v>
+      </c>
+      <c r="B67" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>682</v>
+      </c>
+      <c r="B68" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>684</v>
+      </c>
+      <c r="B69" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>686</v>
+      </c>
+      <c r="B70" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>688</v>
+      </c>
+      <c r="B71" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>690</v>
+      </c>
+      <c r="B72" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>692</v>
+      </c>
+      <c r="B73" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>494</v>
+      </c>
+      <c r="B74" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>694</v>
+      </c>
+      <c r="B75" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>696</v>
+      </c>
+      <c r="B76" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>698</v>
+      </c>
+      <c r="B77" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>700</v>
+      </c>
+      <c r="B78" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>702</v>
+      </c>
+      <c r="B79" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>704</v>
+      </c>
+      <c r="B80" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>706</v>
+      </c>
+      <c r="B81" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>708</v>
+      </c>
+      <c r="B82" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>710</v>
+      </c>
+      <c r="B83" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>712</v>
+      </c>
+      <c r="B84" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>714</v>
+      </c>
+      <c r="B85" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>716</v>
+      </c>
+      <c r="B86" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>718</v>
+      </c>
+      <c r="B87" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>720</v>
+      </c>
+      <c r="B88" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>722</v>
+      </c>
+      <c r="B89" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>724</v>
+      </c>
+      <c r="B90" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>726</v>
+      </c>
+      <c r="B91" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>728</v>
+      </c>
+      <c r="B92" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>730</v>
+      </c>
+      <c r="B93" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>732</v>
+      </c>
+      <c r="B94" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>734</v>
+      </c>
+      <c r="B95" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>736</v>
+      </c>
+      <c r="B96" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>738</v>
+      </c>
+      <c r="B97" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>484</v>
+      </c>
+      <c r="B98" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>486</v>
+      </c>
+      <c r="B99" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>740</v>
+      </c>
+      <c r="B100" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>742</v>
+      </c>
+      <c r="B101" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>744</v>
+      </c>
+      <c r="B102" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s">
+        <v>746</v>
+      </c>
+      <c r="B103" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s">
+        <v>748</v>
+      </c>
+      <c r="B104" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s">
+        <v>489</v>
+      </c>
+      <c r="B105" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s">
+        <v>750</v>
+      </c>
+      <c r="B106" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s">
+        <v>752</v>
+      </c>
+      <c r="B107" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s">
+        <v>754</v>
+      </c>
+      <c r="B108" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s">
+        <v>756</v>
+      </c>
+      <c r="B109" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s">
+        <v>758</v>
+      </c>
+      <c r="B110" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s">
+        <v>760</v>
+      </c>
+      <c r="B111" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s">
+        <v>762</v>
+      </c>
+      <c r="B112" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s">
+        <v>764</v>
+      </c>
+      <c r="B113" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s">
+        <v>766</v>
+      </c>
+      <c r="B114" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s">
+        <v>768</v>
+      </c>
+      <c r="B115" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s">
+        <v>770</v>
+      </c>
+      <c r="B116" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s">
+        <v>772</v>
+      </c>
+      <c r="B117" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s">
+        <v>774</v>
+      </c>
+      <c r="B118" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s">
+        <v>776</v>
+      </c>
+      <c r="B119" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s">
+        <v>778</v>
+      </c>
+      <c r="B120" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s">
+        <v>780</v>
+      </c>
+      <c r="B121" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s">
+        <v>782</v>
+      </c>
+      <c r="B122" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s">
+        <v>784</v>
+      </c>
+      <c r="B123" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s">
+        <v>786</v>
+      </c>
+      <c r="B124" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>788</v>
+      </c>
+      <c r="B125" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>790</v>
+      </c>
+      <c r="B126" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>792</v>
+      </c>
+      <c r="B127" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>500</v>
+      </c>
+      <c r="B128" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>794</v>
+      </c>
+      <c r="B129" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>796</v>
+      </c>
+      <c r="B130" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
+        <v>798</v>
+      </c>
+      <c r="B131" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s">
+        <v>800</v>
+      </c>
+      <c r="B132" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s">
+        <v>802</v>
+      </c>
+      <c r="B133" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s">
+        <v>804</v>
+      </c>
+      <c r="B134" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>806</v>
+      </c>
+      <c r="B135" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>808</v>
+      </c>
+      <c r="B136" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>810</v>
+      </c>
+      <c r="B137" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>812</v>
+      </c>
+      <c r="B138" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>814</v>
+      </c>
+      <c r="B139" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>816</v>
+      </c>
+      <c r="B140" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>488</v>
+      </c>
+      <c r="B141" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>818</v>
+      </c>
+      <c r="B142" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>490</v>
+      </c>
+      <c r="B143" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>820</v>
+      </c>
+      <c r="B144" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>822</v>
+      </c>
+      <c r="B145" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>824</v>
+      </c>
+      <c r="B146" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>826</v>
+      </c>
+      <c r="B147" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>828</v>
+      </c>
+      <c r="B148" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>830</v>
+      </c>
+      <c r="B149" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>493</v>
+      </c>
+      <c r="B150" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>832</v>
+      </c>
+      <c r="B151" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>834</v>
+      </c>
+      <c r="B152" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>836</v>
+      </c>
+      <c r="B153" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>838</v>
+      </c>
+      <c r="B154" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>840</v>
+      </c>
+      <c r="B155" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>842</v>
+      </c>
+      <c r="B156" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
+        <v>496</v>
+      </c>
+      <c r="B157" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="s">
+        <v>498</v>
+      </c>
+      <c r="B158" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="s">
+        <v>844</v>
+      </c>
+      <c r="B159" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>846</v>
+      </c>
+      <c r="B160" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>848</v>
+      </c>
+      <c r="B161" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>850</v>
+      </c>
+      <c r="B162" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>852</v>
+      </c>
+      <c r="B163" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>854</v>
+      </c>
+      <c r="B164" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>856</v>
+      </c>
+      <c r="B165" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>858</v>
+      </c>
+      <c r="B166" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>860</v>
+      </c>
+      <c r="B167" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>862</v>
+      </c>
+      <c r="B168" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>864</v>
+      </c>
+      <c r="B169" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>866</v>
+      </c>
+      <c r="B170" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>483</v>
+      </c>
+      <c r="B171" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>868</v>
+      </c>
+      <c r="B172" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>870</v>
+      </c>
+      <c r="B173" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>872</v>
+      </c>
+      <c r="B174" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>874</v>
+      </c>
+      <c r="B175" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="s">
+        <v>876</v>
+      </c>
+      <c r="B176" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="s">
+        <v>878</v>
+      </c>
+      <c r="B177" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s">
+        <v>880</v>
+      </c>
+      <c r="B178" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="s">
+        <v>882</v>
+      </c>
+      <c r="B179" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s">
+        <v>884</v>
+      </c>
+      <c r="B180" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s">
+        <v>886</v>
+      </c>
+      <c r="B181" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s">
+        <v>888</v>
+      </c>
+      <c r="B182" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s">
+        <v>890</v>
+      </c>
+      <c r="B183" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s">
+        <v>892</v>
+      </c>
+      <c r="B184" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s">
+        <v>894</v>
+      </c>
+      <c r="B185" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s">
+        <v>896</v>
+      </c>
+      <c r="B186" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s">
+        <v>898</v>
+      </c>
+      <c r="B187" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s">
+        <v>900</v>
+      </c>
+      <c r="B188" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s">
+        <v>902</v>
+      </c>
+      <c r="B189" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="s">
+        <v>904</v>
+      </c>
+      <c r="B190" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s">
+        <v>906</v>
+      </c>
+      <c r="B191" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s">
+        <v>908</v>
+      </c>
+      <c r="B192" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s">
+        <v>910</v>
+      </c>
+      <c r="B193" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s">
+        <v>912</v>
+      </c>
+      <c r="B194" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s">
+        <v>914</v>
+      </c>
+      <c r="B195" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s">
+        <v>916</v>
+      </c>
+      <c r="B196" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s">
+        <v>918</v>
+      </c>
+      <c r="B197" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s">
+        <v>920</v>
+      </c>
+      <c r="B198" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="s">
+        <v>499</v>
+      </c>
+      <c r="B199" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="s">
+        <v>922</v>
+      </c>
+      <c r="B200" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="s">
+        <v>924</v>
+      </c>
+      <c r="B201" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="s">
+        <v>926</v>
+      </c>
+      <c r="B202" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="s">
+        <v>928</v>
+      </c>
+      <c r="B203" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="s">
+        <v>930</v>
+      </c>
+      <c r="B204" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="s">
+        <v>932</v>
+      </c>
+      <c r="B205" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="s">
+        <v>934</v>
+      </c>
+      <c r="B206" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="s">
+        <v>936</v>
+      </c>
+      <c r="B207" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="s">
+        <v>938</v>
+      </c>
+      <c r="B208" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="s">
+        <v>940</v>
+      </c>
+      <c r="B209" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="s">
+        <v>942</v>
+      </c>
+      <c r="B210" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="s">
+        <v>944</v>
+      </c>
+      <c r="B211" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="s">
+        <v>946</v>
+      </c>
+      <c r="B212" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="s">
+        <v>948</v>
+      </c>
+      <c r="B213" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="s">
+        <v>491</v>
+      </c>
+      <c r="B214" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="s">
+        <v>950</v>
+      </c>
+      <c r="B215" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="s">
+        <v>952</v>
+      </c>
+      <c r="B216" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="s">
+        <v>954</v>
+      </c>
+      <c r="B217" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="s">
+        <v>956</v>
+      </c>
+      <c r="B218" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="s">
+        <v>958</v>
+      </c>
+      <c r="B219" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="s">
+        <v>960</v>
+      </c>
+      <c r="B220" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="s">
+        <v>962</v>
+      </c>
+      <c r="B221" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="s">
+        <v>964</v>
+      </c>
+      <c r="B222" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="s">
+        <v>966</v>
+      </c>
+      <c r="B223" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="s">
+        <v>968</v>
+      </c>
+      <c r="B224" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="s">
+        <v>970</v>
+      </c>
+      <c r="B225" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="s">
+        <v>972</v>
+      </c>
+      <c r="B226" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="s">
+        <v>974</v>
+      </c>
+      <c r="B227" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="s">
+        <v>976</v>
+      </c>
+      <c r="B228" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="s">
+        <v>978</v>
+      </c>
+      <c r="B229" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="s">
+        <v>980</v>
+      </c>
+      <c r="B230" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="s">
+        <v>982</v>
+      </c>
+      <c r="B231" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="s">
+        <v>984</v>
+      </c>
+      <c r="B232" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="s">
+        <v>986</v>
+      </c>
+      <c r="B233" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="s">
+        <v>988</v>
+      </c>
+      <c r="B234" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="s">
+        <v>990</v>
+      </c>
+      <c r="B235" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="s">
+        <v>992</v>
+      </c>
+      <c r="B236" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="s">
+        <v>994</v>
+      </c>
+      <c r="B237" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="s">
+        <v>996</v>
+      </c>
+      <c r="B238" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="s">
+        <v>998</v>
+      </c>
+      <c r="B239" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B240" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B241" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B242" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B243" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B244" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B245" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B246" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B247" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B248" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B249" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B250" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B251" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B252" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B253" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B254" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B255" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B256" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B257" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B258" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B259" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B260" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B261" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B262" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B263" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="s">
+        <v>495</v>
+      </c>
+      <c r="B264" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B265" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B266" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B267" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B268" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B269" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B270" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B271" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B272" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B273" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B274" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B275" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B276" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B277" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B278" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B279" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B280" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B281" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B282" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B283" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B284" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B285" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B286" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="s">
+        <v>476</v>
+      </c>
+      <c r="B287" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B288" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B289" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="s">
+        <v>478</v>
+      </c>
+      <c r="B290" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="s">
+        <v>479</v>
+      </c>
+      <c r="B291" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B292" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="s">
+        <v>1098</v>
+      </c>
+      <c r="B293" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B294" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="s">
+        <v>480</v>
+      </c>
+      <c r="B295" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B296" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B297" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B298" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B299" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B300" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B301" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B302" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B303" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B304" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B305" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B306" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B307" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="s">
+        <v>487</v>
+      </c>
+      <c r="B308" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B309" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B310" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B311" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B312" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B315" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B316" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B317" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B318" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B319" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B320" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B321" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B322" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B323" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B324" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B325" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B326" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B327" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B328" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B329" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B330" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B331" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B332" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B333" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B334" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B335" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B336" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B337" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B338" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B339" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="s">
         <v>501</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B340" t="s">
         <v>527</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B341" t="s">
+        <v>1189</v>
       </c>
     </row>
   </sheetData>

--- a/Beagle_en_pages_report.xlsx
+++ b/Beagle_en_pages_report.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="local assets" r:id="rId5" sheetId="13"/>
-    <sheet name="todos" r:id="rId6" sheetId="15"/>
-    <sheet name="page map" r:id="rId7" sheetId="16"/>
+    <sheet name="todos" r:id="rId6" sheetId="21"/>
+    <sheet name="page map" r:id="rId7" sheetId="22"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4126" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6334" uniqueCount="1190">
   <si>
     <t>asset</t>
   </si>
@@ -3594,13 +3594,43 @@
     <numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
     <numFmt numFmtId="165" formatCode="###0.0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="24">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3718,7 +3748,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -3771,6 +3801,24 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -5483,7 +5531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B29"/>
   <sheetViews>
@@ -5494,15 +5542,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="43.76953125" collapsed="false"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="89.5703125" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="43.6875" collapsed="false"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="89.2109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="48">
+      <c r="A1" t="s" s="66">
         <v>528</v>
       </c>
-      <c r="B1" t="s" s="48">
+      <c r="B1" t="s" s="66">
         <v>529</v>
       </c>
     </row>
@@ -5519,7 +5567,7 @@
         <v>532</v>
       </c>
       <c r="B3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4">
@@ -5527,7 +5575,7 @@
         <v>532</v>
       </c>
       <c r="B4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="5">
@@ -5535,7 +5583,7 @@
         <v>532</v>
       </c>
       <c r="B5" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6">
@@ -5572,18 +5620,18 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B10" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B11" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12">
@@ -5596,18 +5644,18 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B13" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B14" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
     </row>
     <row r="15">
@@ -5615,7 +5663,7 @@
         <v>549</v>
       </c>
       <c r="B15" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="16">
@@ -5623,23 +5671,23 @@
         <v>549</v>
       </c>
       <c r="B16" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B17" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="B18" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19">
@@ -5735,9 +5783,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B341"/>
+  <dimension ref="A1:B339"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -5746,15 +5794,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="103.0234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="101.16796875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="103.17578125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="101.25" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="51">
+      <c r="A1" t="s" s="69">
         <v>422</v>
       </c>
-      <c r="B1" t="s" s="51">
+      <c r="B1" t="s" s="69">
         <v>423</v>
       </c>
     </row>
@@ -5792,18 +5840,18 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B6" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B7" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="8">
@@ -5888,26 +5936,26 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B18" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B19" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B20" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="21">
@@ -6064,18 +6112,18 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>477</v>
+        <v>634</v>
       </c>
       <c r="B40" t="s">
-        <v>503</v>
+        <v>635</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>634</v>
+        <v>477</v>
       </c>
       <c r="B41" t="s">
-        <v>635</v>
+        <v>503</v>
       </c>
     </row>
     <row r="42">
@@ -6184,18 +6232,18 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B55" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B56" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="57">
@@ -6232,10 +6280,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>670</v>
+        <v>492</v>
       </c>
       <c r="B61" t="s">
-        <v>671</v>
+        <v>518</v>
       </c>
     </row>
     <row r="62">
@@ -6248,10 +6296,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>492</v>
+        <v>670</v>
       </c>
       <c r="B63" t="s">
-        <v>518</v>
+        <v>671</v>
       </c>
     </row>
     <row r="64">
@@ -6288,18 +6336,18 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B68" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="B69" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="70">
@@ -6320,18 +6368,18 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B72" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B73" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
     </row>
     <row r="74">
@@ -6360,18 +6408,18 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B77" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="B78" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
     </row>
     <row r="79">
@@ -6440,18 +6488,18 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B87" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="B88" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
     </row>
     <row r="89">
@@ -6504,18 +6552,18 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B95" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B96" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
     </row>
     <row r="97">
@@ -6544,18 +6592,18 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B100" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B101" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="102">
@@ -6624,26 +6672,26 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B110" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B111" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="B112" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
     </row>
     <row r="113">
@@ -6656,18 +6704,18 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B114" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B115" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
     </row>
     <row r="116">
@@ -6728,42 +6776,42 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>784</v>
+        <v>790</v>
       </c>
       <c r="B123" t="s">
-        <v>785</v>
+        <v>791</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>786</v>
+        <v>792</v>
       </c>
       <c r="B124" t="s">
-        <v>787</v>
+        <v>793</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="B125" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="B126" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B127" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
     </row>
     <row r="128">
@@ -6888,18 +6936,18 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>490</v>
+        <v>820</v>
       </c>
       <c r="B143" t="s">
-        <v>516</v>
+        <v>821</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>820</v>
+        <v>490</v>
       </c>
       <c r="B144" t="s">
-        <v>821</v>
+        <v>516</v>
       </c>
     </row>
     <row r="145">
@@ -6912,10 +6960,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>824</v>
+        <v>828</v>
       </c>
       <c r="B146" t="s">
-        <v>825</v>
+        <v>829</v>
       </c>
     </row>
     <row r="147">
@@ -6928,10 +6976,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B148" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
     </row>
     <row r="149">
@@ -7024,34 +7072,34 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B160" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="B161" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B162" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B163" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="164">
@@ -7168,18 +7216,18 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B178" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="B179" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="180">
@@ -7192,10 +7240,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>886</v>
+        <v>890</v>
       </c>
       <c r="B181" t="s">
-        <v>887</v>
+        <v>891</v>
       </c>
     </row>
     <row r="182">
@@ -7208,10 +7256,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="B183" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
     </row>
     <row r="184">
@@ -7312,18 +7360,18 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B196" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="B197" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
     </row>
     <row r="198">
@@ -7448,18 +7496,18 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>948</v>
+        <v>491</v>
       </c>
       <c r="B213" t="s">
-        <v>949</v>
+        <v>517</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>491</v>
+        <v>948</v>
       </c>
       <c r="B214" t="s">
-        <v>517</v>
+        <v>949</v>
       </c>
     </row>
     <row r="215">
@@ -7480,18 +7528,18 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="B217" t="s">
-        <v>955</v>
+        <v>957</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B218" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
     </row>
     <row r="219">
@@ -7536,18 +7584,18 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
       <c r="B224" t="s">
-        <v>969</v>
+        <v>971</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B225" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
     </row>
     <row r="226">
@@ -7568,18 +7616,18 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>976</v>
+        <v>978</v>
       </c>
       <c r="B228" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="B229" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
     </row>
     <row r="230">
@@ -7600,26 +7648,26 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>984</v>
+        <v>986</v>
       </c>
       <c r="B232" t="s">
-        <v>985</v>
+        <v>987</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
       <c r="B233" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="B234" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
     </row>
     <row r="235">
@@ -7648,34 +7696,34 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="B238" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
       <c r="B239" t="s">
-        <v>999</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="B240" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="B241" t="s">
-        <v>1003</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="242">
@@ -7688,74 +7736,74 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>1006</v>
+        <v>1008</v>
       </c>
       <c r="B243" t="s">
-        <v>1007</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>1008</v>
+        <v>1010</v>
       </c>
       <c r="B244" t="s">
-        <v>1009</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>1010</v>
+        <v>1012</v>
       </c>
       <c r="B245" t="s">
-        <v>1011</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>1012</v>
+        <v>1014</v>
       </c>
       <c r="B246" t="s">
-        <v>1013</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>1014</v>
+        <v>1016</v>
       </c>
       <c r="B247" t="s">
-        <v>1015</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>1016</v>
+        <v>1018</v>
       </c>
       <c r="B248" t="s">
-        <v>1017</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>1018</v>
+        <v>1020</v>
       </c>
       <c r="B249" t="s">
-        <v>1019</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>1020</v>
+        <v>1022</v>
       </c>
       <c r="B250" t="s">
-        <v>1021</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>1022</v>
+        <v>1026</v>
       </c>
       <c r="B251" t="s">
-        <v>1023</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="252">
@@ -7768,26 +7816,26 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>1026</v>
+        <v>1028</v>
       </c>
       <c r="B253" t="s">
-        <v>1027</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>1028</v>
+        <v>1030</v>
       </c>
       <c r="B254" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>1030</v>
+        <v>1034</v>
       </c>
       <c r="B255" t="s">
-        <v>1031</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="256">
@@ -7800,10 +7848,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="B257" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="258">
@@ -7816,50 +7864,50 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>1038</v>
+        <v>1040</v>
       </c>
       <c r="B259" t="s">
-        <v>1039</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>1040</v>
+        <v>1042</v>
       </c>
       <c r="B260" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="B261" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B262" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>1046</v>
+        <v>495</v>
       </c>
       <c r="B263" t="s">
-        <v>1047</v>
+        <v>521</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>495</v>
+        <v>1050</v>
       </c>
       <c r="B264" t="s">
-        <v>521</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="265">
@@ -7872,34 +7920,34 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B266" t="s">
-        <v>1051</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B267" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B268" t="s">
-        <v>1055</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>1056</v>
+        <v>1060</v>
       </c>
       <c r="B269" t="s">
-        <v>1057</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="270">
@@ -7912,154 +7960,154 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>1060</v>
+        <v>1062</v>
       </c>
       <c r="B271" t="s">
-        <v>1061</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>1062</v>
+        <v>1064</v>
       </c>
       <c r="B272" t="s">
-        <v>1063</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>1064</v>
+        <v>1066</v>
       </c>
       <c r="B273" t="s">
-        <v>1065</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>1066</v>
+        <v>1068</v>
       </c>
       <c r="B274" t="s">
-        <v>1067</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>1068</v>
+        <v>1070</v>
       </c>
       <c r="B275" t="s">
-        <v>1069</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>1070</v>
+        <v>1072</v>
       </c>
       <c r="B276" t="s">
-        <v>1071</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>1072</v>
+        <v>1074</v>
       </c>
       <c r="B277" t="s">
-        <v>1073</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>1074</v>
+        <v>1076</v>
       </c>
       <c r="B278" t="s">
-        <v>1075</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>1076</v>
+        <v>1078</v>
       </c>
       <c r="B279" t="s">
-        <v>1077</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>1078</v>
+        <v>1080</v>
       </c>
       <c r="B280" t="s">
-        <v>1079</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>1080</v>
+        <v>1082</v>
       </c>
       <c r="B281" t="s">
-        <v>1081</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="B282" t="s">
-        <v>1083</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>1084</v>
+        <v>1086</v>
       </c>
       <c r="B283" t="s">
-        <v>1085</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>1086</v>
+        <v>1088</v>
       </c>
       <c r="B284" t="s">
-        <v>1087</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>1088</v>
+        <v>1090</v>
       </c>
       <c r="B285" t="s">
-        <v>1089</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>1090</v>
+        <v>476</v>
       </c>
       <c r="B286" t="s">
-        <v>1091</v>
+        <v>502</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>476</v>
+        <v>1092</v>
       </c>
       <c r="B287" t="s">
-        <v>502</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>1092</v>
+        <v>1094</v>
       </c>
       <c r="B288" t="s">
-        <v>1093</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>1094</v>
+        <v>479</v>
       </c>
       <c r="B289" t="s">
-        <v>1095</v>
+        <v>505</v>
       </c>
     </row>
     <row r="290">
@@ -8072,409 +8120,393 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>479</v>
+        <v>1096</v>
       </c>
       <c r="B291" t="s">
-        <v>505</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>1096</v>
+        <v>1100</v>
       </c>
       <c r="B292" t="s">
-        <v>1097</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>1098</v>
+        <v>480</v>
       </c>
       <c r="B293" t="s">
-        <v>1099</v>
+        <v>506</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B294" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>480</v>
+        <v>1104</v>
       </c>
       <c r="B295" t="s">
-        <v>506</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="B296" t="s">
-        <v>1103</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>1104</v>
+        <v>1108</v>
       </c>
       <c r="B297" t="s">
-        <v>1105</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>1106</v>
+        <v>1110</v>
       </c>
       <c r="B298" t="s">
-        <v>1107</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>1108</v>
+        <v>1112</v>
       </c>
       <c r="B299" t="s">
-        <v>1109</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>1110</v>
+        <v>1114</v>
       </c>
       <c r="B300" t="s">
-        <v>1111</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>1112</v>
+        <v>1116</v>
       </c>
       <c r="B301" t="s">
-        <v>1113</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>1114</v>
+        <v>1118</v>
       </c>
       <c r="B302" t="s">
-        <v>1115</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>1116</v>
+        <v>1120</v>
       </c>
       <c r="B303" t="s">
-        <v>1117</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>1118</v>
+        <v>1122</v>
       </c>
       <c r="B304" t="s">
-        <v>1119</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>1120</v>
+        <v>1124</v>
       </c>
       <c r="B305" t="s">
-        <v>1121</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>1122</v>
+        <v>487</v>
       </c>
       <c r="B306" t="s">
-        <v>1123</v>
+        <v>513</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>1124</v>
+        <v>1126</v>
       </c>
       <c r="B307" t="s">
-        <v>1125</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>487</v>
+        <v>1128</v>
       </c>
       <c r="B308" t="s">
-        <v>513</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="B309" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>1128</v>
+        <v>1132</v>
       </c>
       <c r="B310" t="s">
-        <v>1129</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>1130</v>
+        <v>1134</v>
       </c>
       <c r="B311" t="s">
-        <v>1131</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>1132</v>
+        <v>1136</v>
       </c>
       <c r="B312" t="s">
-        <v>1133</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>1134</v>
+        <v>1138</v>
       </c>
       <c r="B313" t="s">
-        <v>1135</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>1136</v>
+        <v>1142</v>
       </c>
       <c r="B314" t="s">
-        <v>1137</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>1138</v>
+        <v>1140</v>
       </c>
       <c r="B315" t="s">
-        <v>1139</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>1140</v>
+        <v>1144</v>
       </c>
       <c r="B316" t="s">
-        <v>1141</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>1142</v>
+        <v>1146</v>
       </c>
       <c r="B317" t="s">
-        <v>1143</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>1144</v>
+        <v>1148</v>
       </c>
       <c r="B318" t="s">
-        <v>1145</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>1146</v>
+        <v>1150</v>
       </c>
       <c r="B319" t="s">
-        <v>1147</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>1148</v>
+        <v>1152</v>
       </c>
       <c r="B320" t="s">
-        <v>1149</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>1150</v>
+        <v>1154</v>
       </c>
       <c r="B321" t="s">
-        <v>1151</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>1152</v>
+        <v>1156</v>
       </c>
       <c r="B322" t="s">
-        <v>1153</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>1154</v>
+        <v>1158</v>
       </c>
       <c r="B323" t="s">
-        <v>1155</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>1156</v>
+        <v>1160</v>
       </c>
       <c r="B324" t="s">
-        <v>1157</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>1158</v>
+        <v>1162</v>
       </c>
       <c r="B325" t="s">
-        <v>1159</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>1160</v>
+        <v>1164</v>
       </c>
       <c r="B326" t="s">
-        <v>1161</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>1162</v>
+        <v>1166</v>
       </c>
       <c r="B327" t="s">
-        <v>1163</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>1164</v>
+        <v>1170</v>
       </c>
       <c r="B328" t="s">
-        <v>1165</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>1166</v>
+        <v>1168</v>
       </c>
       <c r="B329" t="s">
-        <v>1167</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>1168</v>
+        <v>1172</v>
       </c>
       <c r="B330" t="s">
-        <v>1169</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>1170</v>
+        <v>1174</v>
       </c>
       <c r="B331" t="s">
-        <v>1171</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>1172</v>
+        <v>1176</v>
       </c>
       <c r="B332" t="s">
-        <v>1173</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>1174</v>
+        <v>1178</v>
       </c>
       <c r="B333" t="s">
-        <v>1175</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>1176</v>
+        <v>1180</v>
       </c>
       <c r="B334" t="s">
-        <v>1177</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>1178</v>
+        <v>1184</v>
       </c>
       <c r="B335" t="s">
-        <v>1179</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
       <c r="B336" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>1182</v>
+        <v>501</v>
       </c>
       <c r="B337" t="s">
-        <v>1183</v>
+        <v>527</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>1184</v>
+        <v>1186</v>
       </c>
       <c r="B338" t="s">
-        <v>1185</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>1186</v>
+        <v>1188</v>
       </c>
       <c r="B339" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="s">
-        <v>501</v>
-      </c>
-      <c r="B340" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="s">
-        <v>1188</v>
-      </c>
-      <c r="B341" t="s">
         <v>1189</v>
       </c>
     </row>

--- a/Beagle_en_pages_report.xlsx
+++ b/Beagle_en_pages_report.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="local assets" r:id="rId5" sheetId="13"/>
-    <sheet name="todos" r:id="rId6" sheetId="21"/>
-    <sheet name="page map" r:id="rId7" sheetId="22"/>
+    <sheet name="todos" r:id="rId6" sheetId="25"/>
+    <sheet name="page map" r:id="rId7" sheetId="26"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6334" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7860" uniqueCount="1190">
   <si>
     <t>asset</t>
   </si>
@@ -3594,13 +3594,38 @@
     <numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
     <numFmt numFmtId="165" formatCode="###0.0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="29">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3748,7 +3773,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -3819,6 +3844,21 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -5531,7 +5571,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B29"/>
   <sheetViews>
@@ -5547,10 +5587,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="66">
+      <c r="A1" t="s" s="81">
         <v>528</v>
       </c>
-      <c r="B1" t="s" s="66">
+      <c r="B1" t="s" s="81">
         <v>529</v>
       </c>
     </row>
@@ -5783,7 +5823,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B339"/>
   <sheetViews>
@@ -5799,10 +5839,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="69">
+      <c r="A1" t="s" s="84">
         <v>422</v>
       </c>
-      <c r="B1" t="s" s="69">
+      <c r="B1" t="s" s="84">
         <v>423</v>
       </c>
     </row>

--- a/Beagle_en_pages_report.xlsx
+++ b/Beagle_en_pages_report.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="local assets" r:id="rId5" sheetId="13"/>
-    <sheet name="todos" r:id="rId6" sheetId="25"/>
-    <sheet name="page map" r:id="rId7" sheetId="26"/>
+    <sheet name="todos" r:id="rId6" sheetId="39"/>
+    <sheet name="page map" r:id="rId7" sheetId="40"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7860" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13012" uniqueCount="1190">
   <si>
     <t>asset</t>
   </si>
@@ -3594,13 +3594,83 @@
     <numFmt numFmtId="164" formatCode="yyyy-MM-dd"/>
     <numFmt numFmtId="165" formatCode="###0.0"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="43">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -3773,7 +3843,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
@@ -3859,6 +3929,48 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="28" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="29" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="36" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="38" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="39" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="40" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="42" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -5571,7 +5683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B29"/>
   <sheetViews>
@@ -5587,10 +5699,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="81">
+      <c r="A1" t="s" s="123">
         <v>528</v>
       </c>
-      <c r="B1" t="s" s="81">
+      <c r="B1" t="s" s="123">
         <v>529</v>
       </c>
     </row>
@@ -5823,7 +5935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B339"/>
   <sheetViews>
@@ -5839,10 +5951,10 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="84">
+      <c r="A1" t="s" s="126">
         <v>422</v>
       </c>
-      <c r="B1" t="s" s="84">
+      <c r="B1" t="s" s="126">
         <v>423</v>
       </c>
     </row>
